--- a/TestData/TS01_ValidateERPSection1.xlsx
+++ b/TestData/TS01_ValidateERPSection1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36DA319-C841-4BEF-873A-BC50E9880BE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EEE63-B97C-45E2-A899-26FDD2C971B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>Ayati Arvind</t>
   </si>
   <si>
-    <t>Houlihan Lokey - LO</t>
-  </si>
-  <si>
     <t>Debtor Advisors</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Oudman</t>
+  </si>
+  <si>
+    <t>Houlihan Lokey - AM</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>37</v>
@@ -811,7 +811,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>37</v>
@@ -825,7 +825,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -897,7 +897,7 @@
         <v>43</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>37</v>
@@ -911,7 +911,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -1014,15 +1014,15 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1176,12 +1176,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
